--- a/public/DetailLevel2/template-MoM-2.xlsx
+++ b/public/DetailLevel2/template-MoM-2.xlsx
@@ -1,39 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bagus\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF04C82C-4263-4C0F-AF18-DA531B864E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" forceFullCalc="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>No</t>
   </si>
@@ -63,44 +45,30 @@
   </si>
   <si>
     <t>OPEN</t>
-  </si>
-  <si>
-    <t>2023-07-02</t>
-  </si>
-  <si>
-    <t>2023-07-03</t>
-  </si>
-  <si>
-    <t>2023-07-04</t>
-  </si>
-  <si>
-    <t>2023-07-05</t>
-  </si>
-  <si>
-    <t>2023-07-06</t>
-  </si>
-  <si>
-    <t>2023-07-07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -131,22 +99,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -436,20 +396,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -489,110 +448,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/public/DetailLevel2/template-MoM-2.xlsx
+++ b/public/DetailLevel2/template-MoM-2.xlsx
@@ -1,39 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bagus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\kkb23060\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF04C82C-4263-4C0F-AF18-DA531B864E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8784"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" forceFullCalc="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="69">
   <si>
     <t>No</t>
   </si>
@@ -53,18 +39,108 @@
     <t>STATUS</t>
   </si>
   <si>
-    <t>Test Point Of Meeting</t>
-  </si>
-  <si>
-    <t>PLANT</t>
-  </si>
-  <si>
     <t xml:space="preserve">2023-07-01                </t>
   </si>
   <si>
     <t>OPEN</t>
   </si>
   <si>
+    <t>Skema penambahan dan penempatan kontainer baru diarea blok 2.</t>
+  </si>
+  <si>
+    <t>Peralihan Air di drainase K, mengurangi debit air di SP D.</t>
+  </si>
+  <si>
+    <t>HCGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance all solar cell area waterfill (Jam 12 malam sudah mati). </t>
+  </si>
+  <si>
+    <t>Progress pengerjaan portal di underpass</t>
+  </si>
+  <si>
+    <t>Pengecekan tower-tower di KM 19, dimana seling yang sudah berkarat</t>
+  </si>
+  <si>
+    <t>Projek Rest Area KM 17, estimasi by time frame</t>
+  </si>
+  <si>
+    <t>SHE</t>
+  </si>
+  <si>
+    <t>Belt BC2 Pada posisi muatan turun / longsor pada saat PLN Padam (Jetty J)</t>
+  </si>
+  <si>
+    <t>Follow-up inspeksi manajemen di area road karena di dominasi oleh PIC HCGS</t>
+  </si>
+  <si>
+    <t>Pagar walkway jalur girder di Jetty K, resiko pekerjaan tinggi sehingga rekomendasi dari PLANT dikerjakan oleh vendor dan cost besar</t>
+  </si>
+  <si>
+    <t>Radio rack jangkauan Cuma 2 KM, perlu dilakukan inspeksi</t>
+  </si>
+  <si>
+    <t>Progress pengerjaan kontainer ERT (design atap, tangga)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pemenuhan celana dan seragam all karyawan </t>
+  </si>
+  <si>
+    <t>Rainbird tidak bisa difungsikan saat jetty K dioperasikan</t>
+  </si>
+  <si>
+    <t>Treatment oil trap workshop</t>
+  </si>
+  <si>
+    <t>Wygiene tanki fuel WT di las apabila service ( dikasih lock )</t>
+  </si>
+  <si>
+    <t>COMISSIONING SARANA KARYAWAN (dilaksanakan tgl 8/11/2023) Sisanya sudah di share di level 2</t>
+  </si>
+  <si>
+    <t>VALIDASI WATER CANON DAN PEMASANGAN COUPLING 1,5” HOSE PENYIRAMAN ALL WATER TRUCK</t>
+  </si>
+  <si>
+    <t>Jangkauan Radio WL dan CCR di evaluasi semakin pendek, minimal jangkauan area 2km. Penambahan channel area Port 165.075 ke semua sarana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penambahan dapra HJUK, pemasangan W2 November 2023 </t>
+  </si>
+  <si>
+    <t>Perbaikan pipa air pengisian air di tandon Supermudpond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penambahan Ban di area tikungan </t>
+  </si>
+  <si>
+    <t>Pelengkapan rambu di area Port, Pengajuan request rambu arah masuk block</t>
+  </si>
+  <si>
+    <t>Pipa Hydrant Bocor di TC</t>
+  </si>
+  <si>
+    <t>Perapihan pohon-pohon di area port, Kesediaan man power dari HCGS dan dibantu pengawasan oleh Opr</t>
+  </si>
+  <si>
+    <t>Pelebaran area spraying WT0016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penambahan lampu rotary di area pos biru closing </t>
+  </si>
+  <si>
+    <t>Penambahan tanggul waiting line Km 19</t>
+  </si>
+  <si>
+    <t>Parkir Km 19 dilengkapi Flip Flop</t>
+  </si>
+  <si>
+    <t>Mitigasi simpang 6 batatal (Desain simpang maupun rambu)</t>
+  </si>
+  <si>
+    <t>Eng, Port &amp; Road</t>
+  </si>
+  <si>
     <t>2023-07-02</t>
   </si>
   <si>
@@ -81,13 +157,82 @@
   </si>
   <si>
     <t>2023-07-07</t>
+  </si>
+  <si>
+    <t>2023-07-08</t>
+  </si>
+  <si>
+    <t>2023-07-09</t>
+  </si>
+  <si>
+    <t>2023-07-10</t>
+  </si>
+  <si>
+    <t>2023-07-11</t>
+  </si>
+  <si>
+    <t>2023-07-12</t>
+  </si>
+  <si>
+    <t>2023-07-13</t>
+  </si>
+  <si>
+    <t>2023-07-14</t>
+  </si>
+  <si>
+    <t>2023-07-15</t>
+  </si>
+  <si>
+    <t>2023-07-16</t>
+  </si>
+  <si>
+    <t>2023-07-17</t>
+  </si>
+  <si>
+    <t>2023-07-18</t>
+  </si>
+  <si>
+    <t>2023-07-19</t>
+  </si>
+  <si>
+    <t>2023-07-20</t>
+  </si>
+  <si>
+    <t>2023-07-21</t>
+  </si>
+  <si>
+    <t>2023-07-22</t>
+  </si>
+  <si>
+    <t>2023-07-23</t>
+  </si>
+  <si>
+    <t>2023-07-24</t>
+  </si>
+  <si>
+    <t>2023-07-25</t>
+  </si>
+  <si>
+    <t>2023-07-26</t>
+  </si>
+  <si>
+    <t>2023-07-27</t>
+  </si>
+  <si>
+    <t>2023-07-28</t>
+  </si>
+  <si>
+    <t>2023-07-29</t>
+  </si>
+  <si>
+    <t>PLANT &amp; SM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -100,8 +245,17 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -130,9 +284,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,20 +599,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,130 +633,588 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F8" t="s">
-        <v>9</v>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>